--- a/public/file/ornek-arac-sablonu.xlsx
+++ b/public/file/ornek-arac-sablonu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berke Mert\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC329D8-DE1B-4A3C-99BB-8B76F5767F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB42836-E5D8-487A-9F30-8317F456971F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>PLAKA</t>
   </si>
@@ -109,33 +109,6 @@
   </si>
   <si>
     <t>ÖZEL ALAN 11</t>
-  </si>
-  <si>
-    <t>16 ORJ 16</t>
-  </si>
-  <si>
-    <t>BURSA</t>
-  </si>
-  <si>
-    <t>MERCEDES BENZ</t>
-  </si>
-  <si>
-    <t>E 200</t>
-  </si>
-  <si>
-    <t>BENZİN</t>
-  </si>
-  <si>
-    <t>SİYAH</t>
-  </si>
-  <si>
-    <t>BİNEK</t>
-  </si>
-  <si>
-    <t>D SEGMENTİ (ÜST ORTA SINIF)</t>
-  </si>
-  <si>
-    <t>AA SEDAN</t>
   </si>
   <si>
     <t>ÖZEL ALAN 12</t>
@@ -194,7 +167,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F856A9F8-996A-4C78-A103-A92F0D5EEC0D}" name="Tablo2" displayName="Tablo2" ref="A1:AC2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F856A9F8-996A-4C78-A103-A92F0D5EEC0D}" name="Tablo2" displayName="Tablo2" ref="A1:AC2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:AC2" xr:uid="{F856A9F8-996A-4C78-A103-A92F0D5EEC0D}"/>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{FC490E22-113F-4065-BF1F-EC0D43A58368}" name="PLAKA"/>
@@ -494,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,39 +588,7 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2">
-        <v>2025</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
